--- a/data/hotels_by_city/Houston/Houston_shard_523.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_523.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d1176739-Reviews-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn-Pasadena-Houston.h20732.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,372 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r570865006-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>1176739</t>
+  </si>
+  <si>
+    <t>570865006</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay by the pool</t>
+  </si>
+  <si>
+    <t>I loved the fast and friendly check-in, staff was great!. The room was huge, we loved being by the pool. Breakfast was the best I've seen and it was well maintained. Restaurant view from the top floor with the tingling light as the sunset hits the refineries are amazing! We were amazed with the portions. We had a great time and would come back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Sharma1111, Guest Relations Manager at Quality Inn Pasadena, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>I loved the fast and friendly check-in, staff was great!. The room was huge, we loved being by the pool. Breakfast was the best I've seen and it was well maintained. Restaurant view from the top floor with the tingling light as the sunset hits the refineries are amazing! We were amazed with the portions. We had a great time and would come back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r568973092-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>568973092</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Amazing staff</t>
+  </si>
+  <si>
+    <t>Just wanted to say that I enjoyed my stay. The staff was very professiona and the restaurant located on top of the building was Really good. I ordered the steak do it was awesome. My room was always clean and when I asked for directions the front staff was very knowledgeable.  Thank you everyone and I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sharma1111, Guest Relations Manager at Quality Inn Pasadena, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Just wanted to say that I enjoyed my stay. The staff was very professiona and the restaurant located on top of the building was Really good. I ordered the steak do it was awesome. My room was always clean and when I asked for directions the front staff was very knowledgeable.  Thank you everyone and I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r568062211-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>568062211</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Frindly staff and good value</t>
+  </si>
+  <si>
+    <t>Rom was clean and spacious.  All staff were very friendly and helpful.  Breakfast and restaurant food excellent, as was service.  Nikol is restaurant was particularly helpful and friendly.  Restaurant manage Chris was also very friendly.  Front desk staff were very helpful.  Good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rom was clean and spacious.  All staff were very friendly and helpful.  Breakfast and restaurant food excellent, as was service.  Nikol is restaurant was particularly helpful and friendly.  Restaurant manage Chris was also very friendly.  Front desk staff were very helpful.  Good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r545845344-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>545845344</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We can not say this hotel is very confortable.The maintenace of the installations are poor, service is sub standard, and the overall look is a bit poor.Also, its located far from everything except a few ghettoesque houses and next to a busy road. Not very funny to go outside.Inside the room, the furniture is old and cracked, as the in-room fridge and air-co. The fridge also is way too noisy to sleep. Tried to not opened the fridge, as it looked like holding inside a severed head to me. The beds and clothes are new, though.This is the classic american hotel where rooms are in a different building than that of the restaurant and check desk, where you have to walk through an exterior corridor to get to your room. Not very smart in winter when the wind and rain hits to your door directly. Houston is very cold in winter.Companies uses this hotel for low rank sailors from India, China, Phillippines and the like when waiting for their ships. Higher ranks employees are allocated in other hotels, as they would reject this one.Other thing i disliked was the parking lot lights were too visible from the rooms window at night.I wont recommend this hotel if someone asked me.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We can not say this hotel is very confortable.The maintenace of the installations are poor, service is sub standard, and the overall look is a bit poor.Also, its located far from everything except a few ghettoesque houses and next to a busy road. Not very funny to go outside.Inside the room, the furniture is old and cracked, as the in-room fridge and air-co. The fridge also is way too noisy to sleep. Tried to not opened the fridge, as it looked like holding inside a severed head to me. The beds and clothes are new, though.This is the classic american hotel where rooms are in a different building than that of the restaurant and check desk, where you have to walk through an exterior corridor to get to your room. Not very smart in winter when the wind and rain hits to your door directly. Houston is very cold in winter.Companies uses this hotel for low rank sailors from India, China, Phillippines and the like when waiting for their ships. Higher ranks employees are allocated in other hotels, as they would reject this one.Other thing i disliked was the parking lot lights were too visible from the rooms window at night.I wont recommend this hotel if someone asked me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r543196562-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>543196562</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>great visit</t>
+  </si>
+  <si>
+    <t>went there in September &amp; October 2017.Was the only hotel which was FEMA rated and working day in day out to satisfy lodging needs.the lobby was drenched and under water like most of the city &amp; distinctly remember one thing that stood the hotel out from any other... a guest asked the staff why bother keeping it open when the Hurricane had it flooded.The staff just said we doing for our guests to have a roof which at the time didnt strike but over the stay saw the emergency services lodging there as well as myself... had they not vest the extra efforts the city would have reduced disaster relief personnel so they had effectively done their bit to the guests &amp; community by working hard where it could have been as easy to close the doors.Just like the guest had remarked... it is one of those lines that will stay with you rendering management examples when faced with adversities.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>went there in September &amp; October 2017.Was the only hotel which was FEMA rated and working day in day out to satisfy lodging needs.the lobby was drenched and under water like most of the city &amp; distinctly remember one thing that stood the hotel out from any other... a guest asked the staff why bother keeping it open when the Hurricane had it flooded.The staff just said we doing for our guests to have a roof which at the time didnt strike but over the stay saw the emergency services lodging there as well as myself... had they not vest the extra efforts the city would have reduced disaster relief personnel so they had effectively done their bit to the guests &amp; community by working hard where it could have been as easy to close the doors.Just like the guest had remarked... it is one of those lines that will stay with you rendering management examples when faced with adversities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r534913493-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>534913493</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>This hotel very rarely answers their phone, which is very concerning if you have a family member staying at this hotel or if you are just dealing with an emergency in general. I literally called 8 times, and they didn't answer until the last attempt. Very unprofessional. Think twice before you give them your money.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r469169080-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>469169080</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>made my stay amazing</t>
+  </si>
+  <si>
+    <t>was very tired ,had been up two days and my truck broke down ,my ride was great from international,I was picked up at about 8:45am in a nice black car like a four door passenger automobile , the chauffeur was a very well spoken,very polite gentleman name Dondray he opened the door and got my bags as in the movies ,something i wouldn't have expected from a property such as this , when i first checked in they had problems with my reservation and my wait was kinda long ,there was a smell of raw sewage in the hallways, when i got to my room the hot water wasn't really hot and the TV had no signal ,i called the front desk and about 3 mins later the driver whom turned out to be the engineer Dondray showed up to my door as the drive he was very professional apologizing for my inconvenience making me aware how long it would take to correct the problems , once done he apologized again and refused my tip with a smile and was off, later that night while out by the pool around 8pm i spotted the gentleman replacing an A/C  this place must really have a great deal of problems but this guy was always smiling , made my stay great, id come a stay again if he was there and more of the staff was like him, he would take my...was very tired ,had been up two days and my truck broke down ,my ride was great from international,I was picked up at about 8:45am in a nice black car like a four door passenger automobile , the chauffeur was a very well spoken,very polite gentleman name Dondray he opened the door and got my bags as in the movies ,something i wouldn't have expected from a property such as this , when i first checked in they had problems with my reservation and my wait was kinda long ,there was a smell of raw sewage in the hallways, when i got to my room the hot water wasn't really hot and the TV had no signal ,i called the front desk and about 3 mins later the driver whom turned out to be the engineer Dondray showed up to my door as the drive he was very professional apologizing for my inconvenience making me aware how long it would take to correct the problems , once done he apologized again and refused my tip with a smile and was off, later that night while out by the pool around 8pm i spotted the gentleman replacing an A/C  this place must really have a great deal of problems but this guy was always smiling , made my stay great, id come a stay again if he was there and more of the staff was like him, he would take my tip so i had to do this instead , more people should be like this guyMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>was very tired ,had been up two days and my truck broke down ,my ride was great from international,I was picked up at about 8:45am in a nice black car like a four door passenger automobile , the chauffeur was a very well spoken,very polite gentleman name Dondray he opened the door and got my bags as in the movies ,something i wouldn't have expected from a property such as this , when i first checked in they had problems with my reservation and my wait was kinda long ,there was a smell of raw sewage in the hallways, when i got to my room the hot water wasn't really hot and the TV had no signal ,i called the front desk and about 3 mins later the driver whom turned out to be the engineer Dondray showed up to my door as the drive he was very professional apologizing for my inconvenience making me aware how long it would take to correct the problems , once done he apologized again and refused my tip with a smile and was off, later that night while out by the pool around 8pm i spotted the gentleman replacing an A/C  this place must really have a great deal of problems but this guy was always smiling , made my stay great, id come a stay again if he was there and more of the staff was like him, he would take my...was very tired ,had been up two days and my truck broke down ,my ride was great from international,I was picked up at about 8:45am in a nice black car like a four door passenger automobile , the chauffeur was a very well spoken,very polite gentleman name Dondray he opened the door and got my bags as in the movies ,something i wouldn't have expected from a property such as this , when i first checked in they had problems with my reservation and my wait was kinda long ,there was a smell of raw sewage in the hallways, when i got to my room the hot water wasn't really hot and the TV had no signal ,i called the front desk and about 3 mins later the driver whom turned out to be the engineer Dondray showed up to my door as the drive he was very professional apologizing for my inconvenience making me aware how long it would take to correct the problems , once done he apologized again and refused my tip with a smile and was off, later that night while out by the pool around 8pm i spotted the gentleman replacing an A/C  this place must really have a great deal of problems but this guy was always smiling , made my stay great, id come a stay again if he was there and more of the staff was like him, he would take my tip so i had to do this instead , more people should be like this guyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r465706018-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>465706018</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>New, clean rooms with courteous staff</t>
+  </si>
+  <si>
+    <t>This inn happens to be 15 minutes away from the William Hobby airport.  If you can overlook the refinery location, then you will see that this is a newly renovated hotel that has a modern look at an affordable price.   The hallway carpet smells new.  The room's furnitures don't have that worn out look but a new furniture look. Our room has a microwave and frige.  The entire room is clean and so is the bathroom. The WiFi is quite good.  The staff is warm and welcoming. The fitness room is quite small, only a treadmill, elliptical and a couple of dumbell weights.  The Palm Grill Bar upstairs is quite small but the food is delicious. I highly recommend this inn for its great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This inn happens to be 15 minutes away from the William Hobby airport.  If you can overlook the refinery location, then you will see that this is a newly renovated hotel that has a modern look at an affordable price.   The hallway carpet smells new.  The room's furnitures don't have that worn out look but a new furniture look. Our room has a microwave and frige.  The entire room is clean and so is the bathroom. The WiFi is quite good.  The staff is warm and welcoming. The fitness room is quite small, only a treadmill, elliptical and a couple of dumbell weights.  The Palm Grill Bar upstairs is quite small but the food is delicious. I highly recommend this inn for its great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r463564075-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>463564075</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Experience and Friendly Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife and I are passing through Texas on our way home to Oklahoma and had a great experience here. The hotel was clean, comfortable and the staff was very accommodating to our needs. I would recommend the hotel to any of my friends or family who stay here in Pasadena!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r404962949-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>404962949</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Great pool, clean rooms, excellent service!</t>
+  </si>
+  <si>
+    <t>Stayed here for a month with my family on a business/family vacay.  This was by far one of the cleanest hotels we have stayed in. Customer service went above and beyond to meet our expectations.  Sergio in particular provided excellent customer service and always greeted us with a smile.   During our stay we encountered a power outage.  While others were stressed out and moody/RUDE (assistant manager) (don't know her name ).  Sergio still remained at ease and professional. Located atop of the hotel is a bar and grill as well.  Don't recommend the food nor the service at the grill, but was still a nice place to relax after a long day. The pool was always clean, Which I loved!Great Job Quality inn!! A+++MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a month with my family on a business/family vacay.  This was by far one of the cleanest hotels we have stayed in. Customer service went above and beyond to meet our expectations.  Sergio in particular provided excellent customer service and always greeted us with a smile.   During our stay we encountered a power outage.  While others were stressed out and moody/RUDE (assistant manager) (don't know her name ).  Sergio still remained at ease and professional. Located atop of the hotel is a bar and grill as well.  Don't recommend the food nor the service at the grill, but was still a nice place to relax after a long day. The pool was always clean, Which I loved!Great Job Quality inn!! A+++More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r398195524-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>398195524</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>A great hotel just outside of Houston.</t>
+  </si>
+  <si>
+    <t>We stayed one night here passing through on our way to Florida. Our room was fairly close to the bar/lounge on the top floor. We heard very loud music and had to go up and see what was happening up there.  A wedding party was utilizing this space and had a DJ. We sat at the bar and enjoyed the music and watching the people that were celebrating. In our room some details had been missed by housekeeping. The window appeared to have had vomit or something all over it when I pulled open the curtains. There was also a piece of blue gum on the top ledge of the shower. Other than that the hotel room was really nice, comfortable and inviting. Upon our departure we met the GM of the hotel in the elevator. He asked about our stay and I informed him of the two little things in the room. He checked us out and because I booked through a third party (expedia or booking.com can't remember which) he was not able to credit my account. But, he was going to contact them on Monday and see if they could apply a credit back to my credit card. He really did try to go the extra mile and make us happy. The customer service was great and we would stay here again if we are ever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed one night here passing through on our way to Florida. Our room was fairly close to the bar/lounge on the top floor. We heard very loud music and had to go up and see what was happening up there.  A wedding party was utilizing this space and had a DJ. We sat at the bar and enjoyed the music and watching the people that were celebrating. In our room some details had been missed by housekeeping. The window appeared to have had vomit or something all over it when I pulled open the curtains. There was also a piece of blue gum on the top ledge of the shower. Other than that the hotel room was really nice, comfortable and inviting. Upon our departure we met the GM of the hotel in the elevator. He asked about our stay and I informed him of the two little things in the room. He checked us out and because I booked through a third party (expedia or booking.com can't remember which) he was not able to credit my account. But, he was going to contact them on Monday and see if they could apply a credit back to my credit card. He really did try to go the extra mile and make us happy. The customer service was great and we would stay here again if we are ever in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r396743913-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>396743913</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>The employees at Quality Inn are some of the nicest, most helpful people that I've ever had the pleasure of dealing with. Our flight to LAX was cancelled and our church group of 24 youth were stuck sleeping on the floor of the Houston Airport during a 48 hour delay. When we called and spoke to the folks at Quality Inn they went above and beyond to help us. They quickly got us enough rooms for our group, picked us up from the airport, extended breakfast for us so that all of our hungry kids could eat (for free!). They also took us to Walmart and waited while we picked up some necessities since we were all without luggage. After a good day of sleep, they were also kind enough to let us "take over" their lobby to spend time as a group. They did all of this and more with a smile on their face. Never once making us feel inconvenienced. Not only is the staff top notch, but the rooms were great. Clean as can be and super comfy beds!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The employees at Quality Inn are some of the nicest, most helpful people that I've ever had the pleasure of dealing with. Our flight to LAX was cancelled and our church group of 24 youth were stuck sleeping on the floor of the Houston Airport during a 48 hour delay. When we called and spoke to the folks at Quality Inn they went above and beyond to help us. They quickly got us enough rooms for our group, picked us up from the airport, extended breakfast for us so that all of our hungry kids could eat (for free!). They also took us to Walmart and waited while we picked up some necessities since we were all without luggage. After a good day of sleep, they were also kind enough to let us "take over" their lobby to spend time as a group. They did all of this and more with a smile on their face. Never once making us feel inconvenienced. Not only is the staff top notch, but the rooms were great. Clean as can be and super comfy beds!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r365402604-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>365402604</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>A++, will come back again!</t>
+  </si>
+  <si>
+    <t>I travel a lot for work and the hotels I usually stay in are not much to write about.  My stay at Quality Inn was amazing.  Check in was smooth, staff were extremely courteous and friendly.  Wifi is super fast and free! The room was clean and comfortable. Breakfast included and very decent. It really sets you up for a great day ahead.  I would definitely come back here and highly recommend it to others.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r365283880-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>365283880</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>New management and renovated</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff at hotel and freshly renovated rooms were comfortable. What stood out for me was the restaurant and bar on the top floor. Incredible wide angle views especially at night and great food topped it offWas advised the hotel is now under new management. Will definitely come back again. Thanks!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r365161498-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>365161498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbelievable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well its been some time that I have written about my stay at a hotel. Most in part because I don't have nothing good to say. Well ladies and gentlemen I have something to say about my stay here. Hospitality is excellent and I got to admit when the Manager of the hotel opens the bar for you and your crew not even knowing what he is doing all because you finally got a day off after weeks of work. That is what I call a hotel that exceeds the expectations of the client. Thank you Adam and your awesome crew...  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r359612555-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>359612555</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Great STAY</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at this location. Must they left the four days in each day was better. The front desk associate Claudia was amazing bearing problems she correctly and immediately fix. Breakfast was good every day. Return to room each day with no issues. I highly recommend this hotel if you're staying in the area.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r350426619-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>350426619</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>What a change!! AMAZING</t>
+  </si>
+  <si>
+    <t>When I walked into this hotel the first thing I got was a huge shock. This is because I had stayed at the property about a year ago when management was by the old owners and my god was it one of the worst experiences I had in my life. But when I was driving the night I stayed I couldn't believe the change. My stay this time was absolutely wonderful, with warm friendly and hospitable staff. The value for money is exceptionable! Wifi signal was strong through the building and very quick too. I will most definitely be coming back again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r350413687-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>350413687</t>
+  </si>
+  <si>
+    <t>Affable Service</t>
+  </si>
+  <si>
+    <t>As a frequent traveler who has flown and stayed in numerous of places, I can attest to mention Quality Inn Pasadena is definitely a place one can receive amiable hospitality. Not only is the hotel recently renovated, but also offers a clean and organized gym and other useful amenities and services. The rooms are stylish and the service provides a taste of that Southern hospitality not many people are accustomed to. The restaurant is a must try, especially during the night simply because the view is amazing compared to all the other hotels within the Pasadena area. In other words, if you are staying in Pasadena, visit Quality Inn; it's worth every penny! Safety travels!MoreShow less</t>
+  </si>
+  <si>
+    <t>As a frequent traveler who has flown and stayed in numerous of places, I can attest to mention Quality Inn Pasadena is definitely a place one can receive amiable hospitality. Not only is the hotel recently renovated, but also offers a clean and organized gym and other useful amenities and services. The rooms are stylish and the service provides a taste of that Southern hospitality not many people are accustomed to. The restaurant is a must try, especially during the night simply because the view is amazing compared to all the other hotels within the Pasadena area. In other words, if you are staying in Pasadena, visit Quality Inn; it's worth every penny! Safety travels!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +907,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +939,1187 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>160</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_523.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_523.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r585897843-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>1176739</t>
+  </si>
+  <si>
+    <t>585897843</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>A Good Nights Stay!</t>
+  </si>
+  <si>
+    <t>Very comfy bed! Slept the whole night, hotel is nice and quiet. Hotel staff is friendly and accommodating, the room is clean with large mini fridge, micro, and couch in room. I recommend staying here.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r572969913-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>572969913</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Comfy beds</t>
+  </si>
+  <si>
+    <t>Staying here for work and the beds are so comfy! Breakfast has a variety of choices. The staff is very friendly.  Elizabeth always greets me with a smile and small talk every evening when I walk into the lobby after I get off work.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r570865006-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>1176739</t>
-  </si>
-  <si>
     <t>570865006</t>
   </si>
   <si>
@@ -177,9 +219,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Sharma1111, Guest Relations Manager at Quality Inn Pasadena, responded to this reviewResponded April 17, 2018</t>
   </si>
   <si>
@@ -204,12 +243,6 @@
     <t>Just wanted to say that I enjoyed my stay. The staff was very professiona and the restaurant located on top of the building was Really good. I ordered the steak do it was awesome. My room was always clean and when I asked for directions the front staff was very knowledgeable.  Thank you everyone and I will be back.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Sharma1111, Guest Relations Manager at Quality Inn Pasadena, responded to this reviewResponded March 27, 2018</t>
   </si>
   <si>
@@ -237,6 +270,48 @@
     <t>Rom was clean and spacious.  All staff were very friendly and helpful.  Breakfast and restaurant food excellent, as was service.  Nikol is restaurant was particularly helpful and friendly.  Restaurant manage Chris was also very friendly.  Front desk staff were very helpful.  Good location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r563355494-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>563355494</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Never Again Quality Inn Pasadena</t>
+  </si>
+  <si>
+    <t>When we entered our room, it appeared to be a very nice room. Heater worked well. Then my wife went into the bathroom and walked right back out. I checked and there we pair of dirty women's underwear, thermal underwear and men's underwear on the floor behind the door. The back of the door had what I call "water splash" that was white in color and the shower was covered in hair. To top off our stay, the next morning, NO hot water. The temperature was in the 20's and according to management, the pipes were cold and that was why the water was not "hot hot", as he put it. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>When we entered our room, it appeared to be a very nice room. Heater worked well. Then my wife went into the bathroom and walked right back out. I checked and there we pair of dirty women's underwear, thermal underwear and men's underwear on the floor behind the door. The back of the door had what I call "water splash" that was white in color and the shower was covered in hair. To top off our stay, the next morning, NO hot water. The temperature was in the 20's and according to management, the pipes were cold and that was why the water was not "hot hot", as he put it. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r547372919-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>547372919</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>A good hotel if in transit</t>
+  </si>
+  <si>
+    <t>Good quality hotel room, spacious, clean, provided with everything needed, relatively well placed, with restaurants, and shopping places not very far. The soundproofing was not perfect though, noise from the passing cars on the street and people on the corridor could be heard.The time from hotel to IAH airport was about 30 minutes, in normal traffic conditions, which can become an hour or even 2 during peak traffic times.The front desk staff was friendly and helpful.Out of 2 elevators, only one was operational and in the morning it was quite crowded, when several cleaning carts had to go up in the same time with the guests.I would have given a 5 for a hotel in its class, if it wouldn't be for the breakfast arrangements, which were of a poorer quality than in a fast food. Disposable plates, cutlery and cups, poor quality food and coffee and a overzealous employee who insisted on moving things around, collecting and storing everything 30 min before breakfast closing time. One would be amazed to know how much noise the plastic cutlery can make...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Good quality hotel room, spacious, clean, provided with everything needed, relatively well placed, with restaurants, and shopping places not very far. The soundproofing was not perfect though, noise from the passing cars on the street and people on the corridor could be heard.The time from hotel to IAH airport was about 30 minutes, in normal traffic conditions, which can become an hour or even 2 during peak traffic times.The front desk staff was friendly and helpful.Out of 2 elevators, only one was operational and in the morning it was quite crowded, when several cleaning carts had to go up in the same time with the guests.I would have given a 5 for a hotel in its class, if it wouldn't be for the breakfast arrangements, which were of a poorer quality than in a fast food. Disposable plates, cutlery and cups, poor quality food and coffee and a overzealous employee who insisted on moving things around, collecting and storing everything 30 min before breakfast closing time. One would be amazed to know how much noise the plastic cutlery can make...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r545845344-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -252,9 +327,6 @@
     <t>We can not say this hotel is very confortable.The maintenace of the installations are poor, service is sub standard, and the overall look is a bit poor.Also, its located far from everything except a few ghettoesque houses and next to a busy road. Not very funny to go outside.Inside the room, the furniture is old and cracked, as the in-room fridge and air-co. The fridge also is way too noisy to sleep. Tried to not opened the fridge, as it looked like holding inside a severed head to me. The beds and clothes are new, though.This is the classic american hotel where rooms are in a different building than that of the restaurant and check desk, where you have to walk through an exterior corridor to get to your room. Not very smart in winter when the wind and rain hits to your door directly. Houston is very cold in winter.Companies uses this hotel for low rank sailors from India, China, Phillippines and the like when waiting for their ships. Higher ranks employees are allocated in other hotels, as they would reject this one.Other thing i disliked was the parking lot lights were too visible from the rooms window at night.I wont recommend this hotel if someone asked me.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>We can not say this hotel is very confortable.The maintenace of the installations are poor, service is sub standard, and the overall look is a bit poor.Also, its located far from everything except a few ghettoesque houses and next to a busy road. Not very funny to go outside.Inside the room, the furniture is old and cracked, as the in-room fridge and air-co. The fridge also is way too noisy to sleep. Tried to not opened the fridge, as it looked like holding inside a severed head to me. The beds and clothes are new, though.This is the classic american hotel where rooms are in a different building than that of the restaurant and check desk, where you have to walk through an exterior corridor to get to your room. Not very smart in winter when the wind and rain hits to your door directly. Houston is very cold in winter.Companies uses this hotel for low rank sailors from India, China, Phillippines and the like when waiting for their ships. Higher ranks employees are allocated in other hotels, as they would reject this one.Other thing i disliked was the parking lot lights were too visible from the rooms window at night.I wont recommend this hotel if someone asked me.More</t>
   </si>
   <si>
@@ -297,6 +369,51 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r506508515-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>506508515</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>The most comfortable bed I've ever slept on</t>
+  </si>
+  <si>
+    <t>So the hotel is old and has been remodeled, and its age shows in some areas, but for the most part it is a wonderfully updated hotel with attentive staff and a clean environment. There are some things that could be done to improve the first impression the hotel gives off, but it is undeniably a great deal and they offer good service. The food upstairs is good (Ask for the Indian food menu, it's phenomenal) and the drinks at the bar are cheap. The view from the 8th floor is nice and you can see much of 225 and the refineries along the channel. I would visit and stay again given the opportunity, and if I lived in the area I'd probably become a regular at that restaurant and bar. Overall the hotel is not perfect, but for the cost you do get a lot of value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>So the hotel is old and has been remodeled, and its age shows in some areas, but for the most part it is a wonderfully updated hotel with attentive staff and a clean environment. There are some things that could be done to improve the first impression the hotel gives off, but it is undeniably a great deal and they offer good service. The food upstairs is good (Ask for the Indian food menu, it's phenomenal) and the drinks at the bar are cheap. The view from the 8th floor is nice and you can see much of 225 and the refineries along the channel. I would visit and stay again given the opportunity, and if I lived in the area I'd probably become a regular at that restaurant and bar. Overall the hotel is not perfect, but for the cost you do get a lot of value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r477963590-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>477963590</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Great Escape</t>
+  </si>
+  <si>
+    <t>What a great escape. We arrived to great service at the front desk. They sent me to a wonderful room on what they call "The Tower". They have rooms in both the tower and outside by the year around pool. The pool was large with water levels from 3 to 6 foot. My granddaughter said "Very Nice". They also have a restaurant on the top floor of the tower. The restaurant has a happy hour with many food specials. In the hotel it's obvious that management has an interest in every detail. Greatest escape for my family. Major Dan and family will be back</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r469169080-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -354,6 +471,42 @@
     <t xml:space="preserve">My wife and I are passing through Texas on our way home to Oklahoma and had a great experience here. The hotel was clean, comfortable and the staff was very accommodating to our needs. I would recommend the hotel to any of my friends or family who stay here in Pasadena!! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r436727933-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>436727933</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Avarage, but extreme friendly staff, not much in the area going on.</t>
+  </si>
+  <si>
+    <t>Extreme friendly staff!!, bed in my room was very good, clean bathroom and good working TV and free Internet.Breakfast in the lobby like normal bufget hotels, but there's a Denny's close by, a cross the high way on walking distance.The restraurant on the 8th floor,.......@Mr Gordon Ramsey please close it down !!!!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r430172964-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>430172964</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Rooms match the outside not the lobby</t>
+  </si>
+  <si>
+    <t>This hotel is anything but quality.  The lobby is emaculate and the rooms are dingy and rundown looking.  I literally did not want to walk around on the floor barefooted I wore my flip-flops.  It's the only hotel I've ever been in that had all laminate or linoleum floors and a full size fridge.  I can not believe that this hotel has 5 star reviews.  I've stayed in a motel 6 that was nicer.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r404962949-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -390,9 +543,6 @@
     <t>We stayed one night here passing through on our way to Florida. Our room was fairly close to the bar/lounge on the top floor. We heard very loud music and had to go up and see what was happening up there.  A wedding party was utilizing this space and had a DJ. We sat at the bar and enjoyed the music and watching the people that were celebrating. In our room some details had been missed by housekeeping. The window appeared to have had vomit or something all over it when I pulled open the curtains. There was also a piece of blue gum on the top ledge of the shower. Other than that the hotel room was really nice, comfortable and inviting. Upon our departure we met the GM of the hotel in the elevator. He asked about our stay and I informed him of the two little things in the room. He checked us out and because I booked through a third party (expedia or booking.com can't remember which) he was not able to credit my account. But, he was going to contact them on Monday and see if they could apply a credit back to my credit card. He really did try to go the extra mile and make us happy. The customer service was great and we would stay here again if we are ever in the area.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed one night here passing through on our way to Florida. Our room was fairly close to the bar/lounge on the top floor. We heard very loud music and had to go up and see what was happening up there.  A wedding party was utilizing this space and had a DJ. We sat at the bar and enjoyed the music and watching the people that were celebrating. In our room some details had been missed by housekeeping. The window appeared to have had vomit or something all over it when I pulled open the curtains. There was also a piece of blue gum on the top ledge of the shower. Other than that the hotel room was really nice, comfortable and inviting. Upon our departure we met the GM of the hotel in the elevator. He asked about our stay and I informed him of the two little things in the room. He checked us out and because I booked through a third party (expedia or booking.com can't remember which) he was not able to credit my account. But, he was going to contact them on Monday and see if they could apply a credit back to my credit card. He really did try to go the extra mile and make us happy. The customer service was great and we would stay here again if we are ever in the area.More</t>
   </si>
   <si>
@@ -417,6 +567,48 @@
     <t>The employees at Quality Inn are some of the nicest, most helpful people that I've ever had the pleasure of dealing with. Our flight to LAX was cancelled and our church group of 24 youth were stuck sleeping on the floor of the Houston Airport during a 48 hour delay. When we called and spoke to the folks at Quality Inn they went above and beyond to help us. They quickly got us enough rooms for our group, picked us up from the airport, extended breakfast for us so that all of our hungry kids could eat (for free!). They also took us to Walmart and waited while we picked up some necessities since we were all without luggage. After a good day of sleep, they were also kind enough to let us "take over" their lobby to spend time as a group. They did all of this and more with a smile on their face. Never once making us feel inconvenienced. Not only is the staff top notch, but the rooms were great. Clean as can be and super comfy beds!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r388932607-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>388932607</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Great customer service &amp; great value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed a couple of nights on business while in Pasadena. Guest services was wonderful upon checking in and Diamond was great with our check out. Bed was super comfy and I liked the idea of the rooms being only accessible through lobby.  The value was great. Felt safe during the early morning hours while he was away working. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r373319866-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>373319866</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>TRUCK PARKING</t>
+  </si>
+  <si>
+    <t>What a difference, the new owners have really stepped up and put their heart into this place! I stayed here 20 years ago and it was beautiful. I have looked for this hotel for several years, it had gotten so run down that I didn't recognize it. I had assumed it was torn down, then I was driving by and nearly crashed due to my rubber necking in disbelief. I flipped a U turn and it has been brought back to life. Awesome breakfast and the rooftop bar is alive and kicking. Thanks for polishing this old gem up and restoring her to her former beauty!MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam L, General Manager at Quality Inn Pasadena, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>What a difference, the new owners have really stepped up and put their heart into this place! I stayed here 20 years ago and it was beautiful. I have looked for this hotel for several years, it had gotten so run down that I didn't recognize it. I had assumed it was torn down, then I was driving by and nearly crashed due to my rubber necking in disbelief. I flipped a U turn and it has been brought back to life. Awesome breakfast and the rooftop bar is alive and kicking. Thanks for polishing this old gem up and restoring her to her former beauty!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r365402604-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -462,6 +654,39 @@
     <t xml:space="preserve">Well its been some time that I have written about my stay at a hotel. Most in part because I don't have nothing good to say. Well ladies and gentlemen I have something to say about my stay here. Hospitality is excellent and I got to admit when the Manager of the hotel opens the bar for you and your crew not even knowing what he is doing all because you finally got a day off after weeks of work. That is what I call a hotel that exceeds the expectations of the client. Thank you Adam and your awesome crew...  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r364796026-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>364796026</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Recommending this hotel to others!!</t>
+  </si>
+  <si>
+    <t>My stay at Quality Inn Pasadena was surprisingly pleasant!! I stayed at this hotel since the prices for the room were cheap and I didn't expect much from a 3-star hotel.However the hotel was a decent 3-star hotel! We got to the hotel about 4 hours before check in time and since the room was ready they actually let us have the room from the time of arrival at no extra cost! The room was cosy and fresh smelling on arrival! The linen was fresh, and the bathroom was clean! The pool was fantastic and they actually let us swim past the closing time which was nice, as we had a small pool party. The staff were kind and went out of their way to look up tourist attractions and shopping centres even though we bugged them multiple times about it. I would definitely stay at this place again if I come back to Houston! If you don't want to spend large sums of money on a room but don't want to compromise your standards then I would recommend Quality Inn Pasadena Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at Quality Inn Pasadena was surprisingly pleasant!! I stayed at this hotel since the prices for the room were cheap and I didn't expect much from a 3-star hotel.However the hotel was a decent 3-star hotel! We got to the hotel about 4 hours before check in time and since the room was ready they actually let us have the room from the time of arrival at no extra cost! The room was cosy and fresh smelling on arrival! The linen was fresh, and the bathroom was clean! The pool was fantastic and they actually let us swim past the closing time which was nice, as we had a small pool party. The staff were kind and went out of their way to look up tourist attractions and shopping centres even though we bugged them multiple times about it. I would definitely stay at this place again if I come back to Houston! If you don't want to spend large sums of money on a room but don't want to compromise your standards then I would recommend Quality Inn Pasadena Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r363541109-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>363541109</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love to come back and stay here again and again </t>
+  </si>
+  <si>
+    <t>Stayed for the first time. Excellent reception with very warm and friendly assistance. Room is very decent with all comforts. Ideal location and within walking distance. Enjoyed breathtaking wonderful  views from the restaurant on the top floor. Stay was very comfortable and do not hesitate to recommend strongly.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r359612555-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -498,9 +723,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r350413687-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -514,6 +736,42 @@
   </si>
   <si>
     <t>As a frequent traveler who has flown and stayed in numerous of places, I can attest to mention Quality Inn Pasadena is definitely a place one can receive amiable hospitality. Not only is the hotel recently renovated, but also offers a clean and organized gym and other useful amenities and services. The rooms are stylish and the service provides a taste of that Southern hospitality not many people are accustomed to. The restaurant is a must try, especially during the night simply because the view is amazing compared to all the other hotels within the Pasadena area. In other words, if you are staying in Pasadena, visit Quality Inn; it's worth every penny! Safety travels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r350409101-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>350409101</t>
+  </si>
+  <si>
+    <t>Amazing stay &amp; reasonable</t>
+  </si>
+  <si>
+    <t>I have just gotten back from a 2 and a half month holidays in the states. Throughout my journey, I stayed in over 10 hotels yet the accommodation here was by far the most personal and pleasant place to stay with. The staff were very kind, they genuinely went out of their way to make my family and I feel at home. My inlaws also stayed here in a different room which had a different style to our room. The variation in rooms was interesting. Most things in the main tower are brand new with a beautiful reception. Rooms were more than adequate. Value for money will not be beaten, thats for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I have just gotten back from a 2 and a half month holidays in the states. Throughout my journey, I stayed in over 10 hotels yet the accommodation here was by far the most personal and pleasant place to stay with. The staff were very kind, they genuinely went out of their way to make my family and I feel at home. My inlaws also stayed here in a different room which had a different style to our room. The variation in rooms was interesting. Most things in the main tower are brand new with a beautiful reception. Rooms were more than adequate. Value for money will not be beaten, thats for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1176739-r349794995-Quality_Inn_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>349794995</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Good value, fine hotel and great staff</t>
+  </si>
+  <si>
+    <t>Staff was great starting with the Saturday daytime manager. We asked to preview a room due to the hotels history and she showed them to us and answered all our question. What a nice experience to start off with thanks to her. Even staff was helpful also. Hairdryer in room was missing so they went to the store and purchased one. checkout staff was very friendly. Ignore the old reviews prior to new ownership, renovations and becoming a Quality Inn. We will definitely stay again. We have stayed in a lot of hotels that cost more and delivered a lot less.Give the new people a chance and they will please you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was great starting with the Saturday daytime manager. We asked to preview a room due to the hotels history and she showed them to us and answered all our question. What a nice experience to start off with thanks to her. Even staff was helpful also. Hairdryer in room was missing so they went to the store and purchased one. checkout staff was very friendly. Ignore the old reviews prior to new ownership, renovations and becoming a Quality Inn. We will definitely stay again. We have stayed in a lot of hotels that cost more and delivered a lot less.Give the new people a chance and they will please you.More</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1306,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1056,27 +1314,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1092,7 +1342,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1101,34 +1351,34 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="n">
         <v>5</v>
       </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1136,14 +1386,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1405,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1168,49 +1414,47 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1226,7 +1470,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1235,39 +1479,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1283,7 +1537,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1292,31 +1546,31 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="n">
         <v>5</v>
       </c>
@@ -1328,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1350,7 +1604,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1359,43 +1613,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1411,7 +1671,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1420,31 +1680,31 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1453,10 +1713,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1472,7 +1736,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1481,43 +1745,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
         <v>101</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1533,7 +1793,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1542,39 +1802,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
         <v>108</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>76</v>
+      </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1590,7 +1860,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1599,39 +1869,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
         <v>113</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>114</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>115</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>116</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
       <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -1647,7 +1921,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1656,37 +1930,37 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
         <v>120</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>121</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>122</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>123</v>
       </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" t="s">
-        <v>124</v>
-      </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1694,7 +1968,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -1710,7 +1984,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1719,43 +1993,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
         <v>127</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>128</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>129</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>130</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>117</v>
       </c>
       <c r="O13" t="s">
         <v>131</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -1771,7 +2041,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1780,37 +2050,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>135</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>136</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>137</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1818,7 +2086,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -1855,23 +2123,23 @@
         <v>143</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1879,7 +2147,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -1895,7 +2163,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1904,25 +2172,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1936,7 +2204,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1952,7 +2220,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1961,37 +2229,35 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1999,7 +2265,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -2015,7 +2281,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2024,25 +2290,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2056,7 +2322,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -2072,7 +2338,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2081,45 +2347,885 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>160</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O32" t="s">
+        <v>131</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8181</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O33" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
